--- a/Data/Processed/Road_Map.xlsx
+++ b/Data/Processed/Road_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\pet-inflation\Data\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E0C8B-2818-451F-B20E-14A88129F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6035714-F18E-40C4-8D5A-F4B4A29D167F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Road Map: Pet Inflation Forecasting &amp; Pricing Impact Analysis</t>
-  </si>
-  <si>
     <t>Main Goal</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>Monitoring, model updates, new data</t>
+  </si>
+  <si>
+    <t>Pet Inflation Forecasting &amp; Pricing Impact Analysis</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,69 +809,69 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>1.1000000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7">
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,69 +879,69 @@
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
       </c>
       <c r="C9">
         <v>1.2</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
       </c>
       <c r="C10">
         <v>1.2</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="C11">
         <v>1.2</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
       <c r="C12">
         <v>1.2</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,83 +949,83 @@
         <v>1.3</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
       </c>
       <c r="C14">
         <v>1.3</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
       </c>
       <c r="C15">
         <v>1.3</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
       </c>
       <c r="C16">
         <v>1.3</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
       </c>
       <c r="C17">
         <v>1.3</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
       </c>
       <c r="C18">
         <v>1.3</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,83 +1033,83 @@
         <v>1.4</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
       </c>
       <c r="C20">
         <v>1.4</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
       </c>
       <c r="C21">
         <v>1.4</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
       </c>
       <c r="C22">
         <v>1.4</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
         <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
       </c>
       <c r="C23">
         <v>1.4</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
       </c>
       <c r="C24">
         <v>1.4</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,69 +1117,69 @@
         <v>1.5</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
       </c>
       <c r="C26">
         <v>1.5</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
       </c>
       <c r="C27">
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
         <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
       </c>
       <c r="C28">
         <v>1.5</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
       </c>
       <c r="C29">
         <v>1.5</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,83 +1187,83 @@
         <v>1.6</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
         <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
       </c>
       <c r="C31">
         <v>1.6</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
         <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
       </c>
       <c r="C32">
         <v>1.6</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
         <v>90</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
       </c>
       <c r="C33">
         <v>1.6</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
       </c>
       <c r="C34">
         <v>1.6</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
         <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
       </c>
       <c r="C35">
         <v>1.6</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,69 +1271,69 @@
         <v>1.7</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
       </c>
       <c r="C37">
         <v>1.7</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
         <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
       </c>
       <c r="C38">
         <v>1.7</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" t="s">
-        <v>108</v>
       </c>
       <c r="C39">
         <v>1.7</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
       </c>
       <c r="C40">
         <v>1.7</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,69 +1341,69 @@
         <v>1.8</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
         <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
       </c>
       <c r="C42">
         <v>1.8</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>119</v>
       </c>
       <c r="C43">
         <v>1.8</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>122</v>
       </c>
       <c r="C44">
         <v>1.8</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
       </c>
       <c r="C45">
         <v>1.8</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,69 +1411,69 @@
         <v>1.9</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
         <v>129</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
       </c>
       <c r="C47">
         <v>1.9</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
         <v>132</v>
-      </c>
-      <c r="B48" t="s">
-        <v>133</v>
       </c>
       <c r="C48">
         <v>1.9</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" t="s">
         <v>135</v>
-      </c>
-      <c r="B49" t="s">
-        <v>136</v>
       </c>
       <c r="C49">
         <v>1.9</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" t="s">
         <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>139</v>
       </c>
       <c r="C50">
         <v>1.9</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
